--- a/config/excel/skillCombo.xlsx
+++ b/config/excel/skillCombo.xlsx
@@ -1,33 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\go\src\github.com\east-eden\server\config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="31200" windowHeight="17040"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="SkillComboProto" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillComboProto" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+  <si>
+    <t>行列头两行不会被读取</t>
+  </si>
+  <si>
+    <t>水火土风雷</t>
+  </si>
   <si>
     <t>1-武技
 2-必杀技</t>
   </si>
   <si>
+    <t>导出字段名</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>ClassSequence</t>
+  </si>
+  <si>
+    <t>SkillSequence</t>
+  </si>
+  <si>
+    <t>Fomula</t>
+  </si>
+  <si>
+    <t>Buffs</t>
+  </si>
+  <si>
+    <t>导出字段描述</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>连击属性序列</t>
   </si>
   <si>
@@ -40,217 +71,116 @@
     <t>添加Buff</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>ClassSequence</t>
-  </si>
-  <si>
-    <t>SkillSequence</t>
-  </si>
-  <si>
-    <t>Fomula</t>
-  </si>
-  <si>
-    <t>Buffs</t>
+    <t>客户端导出字段类型</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>服务器导出字段类型</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>int[]</t>
+    <t>[]int</t>
+  </si>
+  <si>
+    <t>导出字段默认值</t>
+  </si>
+  <si>
+    <t>默认连击技能</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>连击测试1</t>
   </si>
   <si>
-    <t>1,1,2</t>
-  </si>
-  <si>
-    <t>连击测试2</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
+    <t>火火火</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <rFont val="SimSun"/>
       </rPr>
-      <t>,1,1</t>
+      <t>1,1,1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
+  </si>
+  <si>
+    <t>1,1,2</t>
+  </si>
+  <si>
+    <t>连击测试2</t>
+  </si>
+  <si>
+    <t>火火土</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <rFont val="SimSun"/>
       </rPr>
-      <t>,1,2</t>
+      <t>1,1,2</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>连击测试3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火风水</t>
+  </si>
+  <si>
+    <t>1,3,0</t>
   </si>
   <si>
     <t>连击测试4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火风火</t>
   </si>
   <si>
     <t>1,3,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火火火</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火火土</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火风水</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火风火</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水火土风雷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行列头两行不会被读取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认连击技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="SimSun"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Helvetica Neue"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -273,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -310,6 +240,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -329,6 +270,26 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -340,139 +301,110 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff92d050"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -598,7 +530,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -607,7 +539,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -616,9 +548,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -690,7 +622,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -698,7 +630,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -717,19 +649,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -747,7 +679,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -773,7 +705,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -799,7 +731,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,7 +757,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,7 +783,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,7 +809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -903,7 +835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -929,7 +861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -955,7 +887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -968,15 +900,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -991,15 +917,15 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1018,7 +944,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,7 +970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1070,7 +996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1096,7 +1022,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1122,7 +1048,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,7 +1074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,7 +1100,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1200,7 +1126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1226,7 +1152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1252,7 +1178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,15 +1191,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1287,7 +1207,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1306,19 +1226,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1336,7 +1256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,7 +1282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1388,7 +1308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1414,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1440,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1466,7 +1386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1492,7 +1412,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1518,7 +1438,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1544,7 +1464,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1557,49 +1477,38 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="14.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.67188" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85156" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.149999999999999" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>29</v>
+    <row r="1" ht="16.15" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1610,234 +1519,246 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="26.65" customHeight="1">
+    <row r="2" ht="26.65" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>0</v>
+      <c r="F2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="6">
+        <v>2</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="16.149999999999999" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="I3" s="7" t="s">
+    </row>
+    <row r="4" ht="16.15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s" s="10">
         <v>11</v>
       </c>
+      <c r="C4" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="9">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="16.149999999999999" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>5</v>
-      </c>
+    <row r="5" ht="16.15" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="16.149999999999999" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>14</v>
+    <row r="6" ht="16.15" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s" s="9">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.149999999999999" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>42</v>
+    <row r="7" ht="16.15" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s" s="11">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s" s="9">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.149999999999999" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="18">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="8">
-        <v>3</v>
-      </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.149999999999999" customHeight="1">
+    <row r="8" ht="16.15" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="19">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s" s="15">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="H8" s="16">
         <v>3</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="16.149999999999999" customHeight="1">
+    <row r="9" ht="16.15" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="19">
-        <v>3</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="C9" s="18">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s" s="19">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H9" s="21">
         <v>3</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.149999999999999" customHeight="1">
+    <row r="10" ht="16.15" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="19">
-        <v>4</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="C10" s="18">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s" s="19">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H10" s="21">
         <v>3</v>
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="16.149999999999999" customHeight="1">
+    <row r="11" ht="16.15" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="C11" s="18">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s" s="19">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s" s="20">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H11" s="21">
+        <v>3</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" ht="16.15" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/skillCombo.xlsx
+++ b/config/excel/skillCombo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -80,10 +80,13 @@
     <t>服务器导出字段类型</t>
   </si>
   <si>
+    <t>int32</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>[]int</t>
+    <t>[]int32</t>
   </si>
   <si>
     <t>导出字段默认值</t>
@@ -1609,48 +1612,48 @@
         <v>21</v>
       </c>
       <c r="C6" t="s" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s" s="8">
-        <v>20</v>
-      </c>
       <c r="I6" t="s" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="16.15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" t="s" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" ht="16.15" customHeight="1">
@@ -1660,16 +1663,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s" s="14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s" s="15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="16">
         <v>3</v>
@@ -1683,16 +1686,16 @@
         <v>2</v>
       </c>
       <c r="D9" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s" s="19">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s" s="20">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="E9" t="s" s="19">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s" s="20">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>30</v>
       </c>
       <c r="H9" s="21">
         <v>3</v>
@@ -1706,16 +1709,16 @@
         <v>3</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s" s="19">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s" s="20">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="21">
         <v>3</v>
@@ -1729,16 +1732,16 @@
         <v>4</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s" s="19">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s" s="20">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="21">
         <v>3</v>

--- a/config/excel/skillCombo.xlsx
+++ b/config/excel/skillCombo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -87,15 +87,6 @@
   </si>
   <si>
     <t>[]int32</t>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
-  </si>
-  <si>
-    <t>默认连击技能</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>连击测试1</t>
@@ -1492,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1608,7 +1599,7 @@
     </row>
     <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="10">
+      <c r="B6" t="s" s="11">
         <v>21</v>
       </c>
       <c r="C6" t="s" s="8">
@@ -1635,55 +1626,55 @@
     </row>
     <row r="7" ht="16.15" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" t="s" s="11">
+      <c r="B7" s="3"/>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" t="s" s="8">
+      <c r="E7" t="s" s="14">
         <v>26</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" t="s" s="8">
+      <c r="F7" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="G7" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s" s="9">
-        <v>27</v>
-      </c>
+      <c r="G7" t="s" s="13">
+        <v>28</v>
+      </c>
+      <c r="H7" s="16">
+        <v>3</v>
+      </c>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" ht="16.15" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="13">
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s" s="19">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s" s="20">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="E8" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="H8" s="16">
+      <c r="H8" s="21">
         <v>3</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" ht="16.15" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>32</v>
@@ -1695,7 +1686,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H9" s="21">
         <v>3</v>
@@ -1706,7 +1697,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>35</v>
@@ -1718,7 +1709,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10" s="21">
         <v>3</v>
@@ -1728,36 +1719,13 @@
     <row r="11" ht="16.15" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="18">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s" s="19">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s" s="20">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="H11" s="21">
-        <v>3</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" ht="16.15" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
